--- a/صيدليات دكتور مصطفي طلعت_2026-01-09_22-05.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-09_22-05.xlsx
@@ -143,6 +143,9 @@
     <t>CONVENTIN XR 300MG 30 TABS.</t>
   </si>
   <si>
+    <t>CO-TAREG 160/12.5MG 14 F.C. TAB.</t>
+  </si>
+  <si>
     <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
   </si>
   <si>
@@ -188,6 +191,9 @@
     <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
   </si>
   <si>
+    <t>EMPAGLIFORM 12.5/1000 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
     <t>EPICEPHIN 1 GM I.M. VIAL</t>
   </si>
   <si>
@@ -197,6 +203,12 @@
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
+    <t>EXEEDOGAST 40 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>EXFORGE HCT 5/160/12.5MG 14 F.C. TAB</t>
+  </si>
+  <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -221,6 +233,9 @@
     <t>GLYBOFEN 5/500MG 30 F.C.TABS.</t>
   </si>
   <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
     <t>INFECTOCURE 500 MG 14 F.C.TABS.</t>
   </si>
   <si>
@@ -321,6 +336,12 @@
   </si>
   <si>
     <t>7:0</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>0:4</t>
   </si>
   <si>
     <t>PANADOL EXTRA 48 TAB</t>
@@ -1677,17 +1698,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1695,7 +1716,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1703,17 +1724,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1729,17 +1750,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>36</v>
+        <v>27.5</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1747,7 +1768,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1755,17 +1776,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1781,13 +1802,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1807,13 +1828,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1825,7 +1846,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1833,17 +1854,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1859,17 +1880,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1877,7 +1898,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1885,17 +1906,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1903,7 +1924,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1911,17 +1932,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1937,17 +1958,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1955,7 +1976,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1963,13 +1984,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1981,7 +2002,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1989,17 +2010,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2015,13 +2036,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -2041,13 +2062,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>68.400000000000006</v>
+        <v>168</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -2067,17 +2088,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2093,13 +2114,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>177</v>
+        <v>51</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -2119,17 +2140,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>-25</v>
+        <v>45</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2137,7 +2158,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2145,17 +2166,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>14.25</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2163,7 +2184,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2171,13 +2192,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2189,7 +2210,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2197,17 +2218,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2215,7 +2236,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2223,13 +2244,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>27.440000000000001</v>
+        <v>-25</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2249,17 +2270,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>57</v>
+        <v>14.25</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2275,13 +2296,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>120.78</v>
+        <v>124</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2301,17 +2322,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2327,17 +2348,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2353,17 +2374,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>65</v>
+        <v>27.440000000000001</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2379,13 +2400,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2405,17 +2426,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>38</v>
+        <v>120.78</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2437,7 +2458,7 @@
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2457,13 +2478,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2475,7 +2496,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2483,17 +2504,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2501,7 +2522,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2509,13 +2530,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2527,7 +2548,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2535,17 +2556,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2553,7 +2574,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2561,17 +2582,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>23</v>
+        <v>240</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2579,7 +2600,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2587,17 +2608,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2605,7 +2626,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2613,17 +2634,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>92</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2631,7 +2652,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2639,17 +2660,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2657,7 +2678,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2665,13 +2686,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2683,7 +2704,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2691,17 +2712,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2709,7 +2730,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2717,17 +2738,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>411</v>
+        <v>57</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2735,7 +2756,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2743,17 +2764,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>11</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2769,17 +2790,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2787,7 +2808,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2795,13 +2816,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2813,7 +2834,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2821,17 +2842,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2839,7 +2860,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2847,13 +2868,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>24</v>
+        <v>411</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
@@ -2865,7 +2886,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2873,17 +2894,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2891,7 +2912,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2899,17 +2920,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>160.05000000000001</v>
+        <v>48</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>11</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2917,7 +2938,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2925,17 +2946,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2943,7 +2964,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2951,17 +2972,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2969,7 +2990,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2977,13 +2998,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
@@ -2995,7 +3016,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -3003,17 +3024,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>86.5</v>
+        <v>46</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>11</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3029,17 +3050,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3055,17 +3076,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>62</v>
+        <v>160.05000000000001</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3087,11 +3108,11 @@
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>282</v>
+        <v>19.5</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3107,17 +3128,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>30.5</v>
+        <v>7</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3125,7 +3146,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3133,17 +3154,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>31.5</v>
+        <v>45</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3165,7 +3186,7 @@
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>60</v>
+        <v>86.5</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
@@ -3191,7 +3212,7 @@
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3211,17 +3232,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3243,11 +3264,11 @@
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>68.400000000000006</v>
+        <v>282</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>11</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3263,17 +3284,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>26.100000000000001</v>
+        <v>30.5</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3289,17 +3310,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>62</v>
+        <v>31.5</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3307,7 +3328,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3315,13 +3336,13 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
@@ -3333,7 +3354,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3341,17 +3362,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3367,17 +3388,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>2.5</v>
+        <v>24</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3385,7 +3406,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3399,11 +3420,11 @@
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>94.5</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3411,7 +3432,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3419,17 +3440,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>96</v>
+        <v>26.100000000000001</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3437,7 +3458,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3445,17 +3466,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3463,7 +3484,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3471,13 +3492,13 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
@@ -3489,7 +3510,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3497,17 +3518,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3529,11 +3550,11 @@
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3549,17 +3570,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>48</v>
+        <v>94.5</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
-        <v>136</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3567,7 +3588,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3575,17 +3596,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
-        <v>103</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3593,7 +3614,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B103" s="7">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3601,13 +3622,13 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
@@ -3619,7 +3640,7 @@
         <v>101</v>
       </c>
       <c t="s" r="B104" s="7">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3627,51 +3648,207 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="105" ht="26.25" customHeight="1">
-      <c r="K105" s="10">
-        <v>6959.7299999999996</v>
-      </c>
-      <c r="L105" s="10"/>
-      <c r="M105" s="10"/>
-      <c r="N105" s="10"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="11">
+    <row r="105" ht="25.5" customHeight="1">
+      <c r="A105" s="6">
+        <v>102</v>
+      </c>
+      <c t="s" r="B105" s="7">
+        <v>139</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c t="s" r="H105" s="8">
+        <v>21</v>
+      </c>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="9">
+        <v>25</v>
+      </c>
+      <c r="M105" s="9"/>
+      <c t="s" r="N105" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" ht="24.75" customHeight="1">
+      <c r="A106" s="6">
+        <v>103</v>
+      </c>
+      <c t="s" r="B106" s="7">
+        <v>140</v>
+      </c>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c t="s" r="H106" s="8">
+        <v>141</v>
+      </c>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="9">
+        <v>8</v>
+      </c>
+      <c r="M106" s="9"/>
+      <c t="s" r="N106" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="6">
+        <v>104</v>
+      </c>
+      <c t="s" r="B107" s="7">
         <v>142</v>
       </c>
-      <c r="B106" s="11"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c t="s" r="F106" s="12">
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c t="s" r="H107" s="8">
+        <v>141</v>
+      </c>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
+      <c r="L107" s="9">
+        <v>48</v>
+      </c>
+      <c r="M107" s="9"/>
+      <c t="s" r="N107" s="7">
         <v>143</v>
       </c>
-      <c r="G106" s="12"/>
-      <c r="H106" s="13"/>
-      <c t="s" r="I106" s="14">
+    </row>
+    <row r="108" ht="25.5" customHeight="1">
+      <c r="A108" s="6">
+        <v>105</v>
+      </c>
+      <c t="s" r="B108" s="7">
         <v>144</v>
       </c>
-      <c r="J106" s="14"/>
-      <c r="K106" s="14"/>
-      <c r="L106" s="14"/>
-      <c r="M106" s="14"/>
-      <c r="N106" s="14"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c t="s" r="H108" s="8">
+        <v>141</v>
+      </c>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="9">
+        <v>14</v>
+      </c>
+      <c r="M108" s="9"/>
+      <c t="s" r="N108" s="7">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" ht="24.75" customHeight="1">
+      <c r="A109" s="6">
+        <v>106</v>
+      </c>
+      <c t="s" r="B109" s="7">
+        <v>145</v>
+      </c>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c t="s" r="H109" s="8">
+        <v>146</v>
+      </c>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="9">
+        <v>55</v>
+      </c>
+      <c r="M109" s="9"/>
+      <c t="s" r="N109" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" ht="25.5" customHeight="1">
+      <c r="A110" s="6">
+        <v>107</v>
+      </c>
+      <c t="s" r="B110" s="7">
+        <v>147</v>
+      </c>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c t="s" r="H110" s="8">
+        <v>148</v>
+      </c>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="9">
+        <v>30</v>
+      </c>
+      <c r="M110" s="9"/>
+      <c t="s" r="N110" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="K111" s="10">
+        <v>7618.7299999999996</v>
+      </c>
+      <c r="L111" s="10"/>
+      <c r="M111" s="10"/>
+      <c r="N111" s="10"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="11">
+        <v>149</v>
+      </c>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c t="s" r="F112" s="12">
+        <v>150</v>
+      </c>
+      <c r="G112" s="12"/>
+      <c r="H112" s="13"/>
+      <c t="s" r="I112" s="14">
+        <v>151</v>
+      </c>
+      <c r="J112" s="14"/>
+      <c r="K112" s="14"/>
+      <c r="L112" s="14"/>
+      <c r="M112" s="14"/>
+      <c r="N112" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="314">
+  <mergeCells count="332">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3982,10 +4159,28 @@
     <mergeCell ref="B104:G104"/>
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
-    <mergeCell ref="K105:N105"/>
-    <mergeCell ref="A106:E106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="I106:N106"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="B106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="K111:N111"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="I112:N112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
